--- a/col_maps.xlsx
+++ b/col_maps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{180D8316-83D5-4A08-9F3D-9242F4ACD90A}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D990BB29-FE83-452C-86BF-2F078B707C02}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="1619">
   <si>
     <t>报告期</t>
   </si>
@@ -5035,6 +5035,14 @@
   </si>
   <si>
     <t>HOLD_MATURITY_INVEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入返售金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY_RESALE_FINASSET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8488,10 +8496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1285F2E-B767-426D-8E9D-2A00BC051215}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8733,65 +8741,62 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>321</v>
-      </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>1618</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>1617</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>1617</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1596</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>1596</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>1596</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>1596</v>
+      </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>1596</v>
       </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>1596</v>
       </c>
       <c r="E17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>323</v>
-      </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>549</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="E18" t="s">
         <v>313</v>
@@ -8799,55 +8804,61 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E19" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>324</v>
+      </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="C20" t="s">
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>489</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>325</v>
-      </c>
       <c r="B21" t="s">
-        <v>649</v>
-      </c>
-      <c r="C21" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>489</v>
       </c>
       <c r="E21" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
       <c r="B22" t="s">
-        <v>1611</v>
+        <v>649</v>
+      </c>
+      <c r="C22" t="s">
+        <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>1608</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
         <v>313</v>
@@ -8855,13 +8866,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C23" t="s">
-        <v>417</v>
+        <v>1611</v>
       </c>
       <c r="D23" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -8872,86 +8880,83 @@
         <v>1609</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D24" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>1600</v>
-      </c>
       <c r="B25" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="C25" t="s">
-        <v>1600</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>326</v>
+        <v>1607</v>
+      </c>
+      <c r="E25" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="B26" t="s">
-        <v>1616</v>
+        <v>1601</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1600</v>
       </c>
       <c r="D26" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>1615</v>
+      </c>
       <c r="B27" t="s">
-        <v>551</v>
-      </c>
-      <c r="C27" t="s">
-        <v>415</v>
+        <v>1616</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>1615</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>382</v>
+        <v>551</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
       <c r="B29" t="s">
-        <v>598</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>326</v>
@@ -8959,16 +8964,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>326</v>
@@ -8976,16 +8981,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="C31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>326</v>
@@ -8993,16 +8998,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>1579</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
-        <v>857</v>
+        <v>331</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>326</v>
@@ -9010,78 +9015,78 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>1579</v>
       </c>
       <c r="B33" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>333</v>
+        <v>857</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>333</v>
+      </c>
       <c r="B34" t="s">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="C34" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>335</v>
-      </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="D35" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
       <c r="B36" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>336</v>
-      </c>
       <c r="B37" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="D37" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>326</v>
@@ -9089,16 +9094,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>1602</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s">
-        <v>1603</v>
+        <v>580</v>
       </c>
       <c r="C38" t="s">
-        <v>1602</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s">
-        <v>1602</v>
+        <v>336</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>326</v>
@@ -9106,16 +9111,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>1602</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>1603</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>1602</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>1602</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>326</v>
@@ -9123,44 +9128,44 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="C40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>339</v>
+      </c>
       <c r="B41" t="s">
-        <v>607</v>
+        <v>618</v>
+      </c>
+      <c r="C41" t="s">
+        <v>339</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>340</v>
-      </c>
       <c r="B42" t="s">
-        <v>653</v>
-      </c>
-      <c r="C42" t="s">
-        <v>340</v>
+        <v>607</v>
       </c>
       <c r="D42" t="s">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>326</v>
@@ -9168,16 +9173,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1583</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>653</v>
       </c>
       <c r="C43" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>326</v>
@@ -9185,30 +9190,33 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>342</v>
+        <v>1583</v>
       </c>
       <c r="B44" t="s">
-        <v>642</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="D44" t="s">
-        <v>342</v>
-      </c>
-      <c r="E44" t="s">
-        <v>341</v>
+        <v>435</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>1604</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s">
-        <v>1610</v>
+        <v>642</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
       </c>
       <c r="D45" t="s">
-        <v>1604</v>
+        <v>342</v>
       </c>
       <c r="E45" t="s">
         <v>341</v>
@@ -9216,16 +9224,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>1604</v>
       </c>
       <c r="B46" t="s">
-        <v>561</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
+        <v>1610</v>
       </c>
       <c r="D46" t="s">
-        <v>440</v>
+        <v>1604</v>
       </c>
       <c r="E46" t="s">
         <v>341</v>
@@ -9233,16 +9238,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="B47" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="C47" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="D47" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="E47" t="s">
         <v>341</v>
@@ -9250,16 +9255,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>1585</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>611</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="D48" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="E48" t="s">
         <v>341</v>
@@ -9267,16 +9272,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>1585</v>
       </c>
       <c r="B49" t="s">
-        <v>528</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>441</v>
       </c>
       <c r="D49" t="s">
-        <v>856</v>
+        <v>497</v>
       </c>
       <c r="E49" t="s">
         <v>341</v>
@@ -9284,16 +9289,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>1612</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s">
-        <v>1613</v>
+        <v>528</v>
       </c>
       <c r="C50" t="s">
-        <v>1612</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>1612</v>
+        <v>856</v>
       </c>
       <c r="E50" t="s">
         <v>341</v>
@@ -9301,16 +9306,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>1612</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>1613</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>1612</v>
       </c>
       <c r="D51" t="s">
-        <v>346</v>
+        <v>1612</v>
       </c>
       <c r="E51" t="s">
         <v>341</v>
@@ -9318,16 +9323,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E52" t="s">
         <v>341</v>
@@ -9335,16 +9340,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E53" t="s">
         <v>341</v>
@@ -9352,103 +9357,106 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E54" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>349</v>
+      </c>
       <c r="B55" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="E55" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>352</v>
-      </c>
       <c r="B56" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>456</v>
       </c>
       <c r="E56" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>352</v>
+      </c>
       <c r="B57" t="s">
-        <v>555</v>
+        <v>608</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="E57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>354</v>
-      </c>
       <c r="B58" t="s">
-        <v>375</v>
-      </c>
-      <c r="C58" t="s">
-        <v>354</v>
+        <v>555</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>501</v>
       </c>
       <c r="E58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>354</v>
+      </c>
       <c r="B59" t="s">
-        <v>599</v>
+        <v>375</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>848</v>
+        <v>354</v>
+      </c>
+      <c r="E59" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="C60" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>848</v>
@@ -9456,13 +9464,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="C61" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>848</v>
@@ -9470,13 +9478,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>848</v>
@@ -9484,13 +9492,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D63" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>848</v>
@@ -9498,13 +9506,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>469</v>
       </c>
       <c r="D64" t="s">
-        <v>357</v>
+        <v>503</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>848</v>
@@ -9512,13 +9520,13 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
       <c r="C65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>848</v>
@@ -9526,10 +9534,13 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>610</v>
+        <v>620</v>
+      </c>
+      <c r="C66" t="s">
+        <v>358</v>
       </c>
       <c r="D66" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>848</v>
@@ -9537,13 +9548,10 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>654</v>
-      </c>
-      <c r="C67" t="s">
-        <v>359</v>
+        <v>610</v>
       </c>
       <c r="D67" t="s">
-        <v>359</v>
+        <v>506</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>848</v>
@@ -9551,13 +9559,13 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>848</v>
@@ -9565,27 +9573,27 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="D69" t="s">
-        <v>471</v>
-      </c>
-      <c r="E69" t="s">
-        <v>850</v>
+        <v>360</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="C70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
         <v>850</v>
@@ -9593,13 +9601,13 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="E71" t="s">
         <v>850</v>
@@ -9607,13 +9615,13 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>177</v>
+        <v>546</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="E72" t="s">
         <v>850</v>
@@ -9621,13 +9629,13 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>644</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
         <v>850</v>
@@ -9635,13 +9643,13 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="E74" t="s">
         <v>850</v>
@@ -9649,13 +9657,13 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E75" t="s">
         <v>850</v>
@@ -9663,13 +9671,13 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
+        <v>364</v>
       </c>
       <c r="E76" t="s">
         <v>850</v>
@@ -9677,13 +9685,13 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>511</v>
       </c>
       <c r="E77" t="s">
         <v>850</v>
@@ -9691,13 +9699,13 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="C78" t="s">
-        <v>481</v>
+        <v>365</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>365</v>
       </c>
       <c r="E78" t="s">
         <v>850</v>
@@ -9705,15 +9713,29 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
+        <v>650</v>
+      </c>
+      <c r="C79" t="s">
+        <v>481</v>
+      </c>
+      <c r="D79" t="s">
+        <v>512</v>
+      </c>
+      <c r="E79" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
         <v>386</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>482</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>513</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>850</v>
       </c>
     </row>

--- a/col_maps.xlsx
+++ b/col_maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39932d735537154f/Project/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97146A64-39E4-48BA-A515-203DA88BA440}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="13_ncr:1_{EC6ECD24-996D-4286-BECF-228A5C262522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C26B3F9-9761-4DF4-A607-448F4E127591}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="1658">
   <si>
     <t>报告期</t>
   </si>
@@ -5154,10 +5154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*净利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5195,6 +5191,14 @@
   </si>
   <si>
     <t>合同负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属于母公司所有者权益合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5583,8 +5587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5635,7 +5639,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -5643,7 +5647,7 @@
         <v>1644</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -5651,31 +5655,31 @@
         <v>1645</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -8699,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1285F2E-B767-426D-8E9D-2A00BC051215}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8822,7 +8826,7 @@
         <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E7" t="s">
         <v>313</v>
@@ -8870,7 +8874,7 @@
         <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E10" t="s">
         <v>313</v>
@@ -8983,7 +8987,7 @@
         <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E17" t="s">
         <v>313</v>
@@ -9076,7 +9080,7 @@
         <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E23" t="s">
         <v>313</v>
@@ -9290,7 +9294,7 @@
         <v>333</v>
       </c>
       <c r="D37" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>326</v>
@@ -9352,7 +9356,7 @@
         <v>336</v>
       </c>
       <c r="D41" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>326</v>
@@ -9595,7 +9599,7 @@
         <v>346</v>
       </c>
       <c r="D56" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E56" t="s">
         <v>341</v>
@@ -9943,7 +9947,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>647</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>1633</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>661</v>
       </c>
@@ -9985,7 +9989,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>1657</v>
+      </c>
       <c r="B84" t="s">
         <v>656</v>
       </c>
@@ -9999,7 +10006,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>604</v>
       </c>
@@ -10013,7 +10020,10 @@
         <v>850</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>1594</v>
+      </c>
       <c r="B86" t="s">
         <v>650</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>386</v>
       </c>
